--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/GiaSPDVCongIch.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/GiaSPDVCongIch.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FB5AC9-795A-47E6-9E90-D376FFF7D7F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EF337B-0F38-4BB3-8D6E-2E33CA437476}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{47CC190E-FBAD-4F05-B020-ECB48EB0696D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Mã nhóm</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Lô sạp cố định trong nhà chợ</t>
-  </si>
-  <si>
-    <t>Tên nhóm</t>
   </si>
   <si>
     <t>Nhà chợ cấp 2 cấp 3</t>
@@ -514,63 +511,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAD093F-75A6-44DB-84E5-06FB9066F6A7}">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" style="1" customWidth="1"/>
-    <col min="5" max="9" width="20.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="14.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" style="1" customWidth="1"/>
+    <col min="4" max="8" width="20.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="6" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="G1" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-    </row>
-    <row r="2" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -589,17 +582,16 @@
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-    </row>
-    <row r="3" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -616,17 +608,16 @@
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-    </row>
-    <row r="4" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="7">
+      <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -643,32 +634,31 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-    </row>
-    <row r="5" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="7" t="s">
-        <v>15</v>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
+      <c r="E5" s="3">
+        <v>99000</v>
       </c>
       <c r="F5" s="3">
-        <v>99000</v>
+        <v>89000</v>
       </c>
       <c r="G5" s="3">
-        <v>89000</v>
+        <v>80000</v>
       </c>
       <c r="H5" s="3">
-        <v>80000</v>
-      </c>
-      <c r="I5" s="3">
         <v>69000</v>
       </c>
+      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -680,12 +670,11 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-    </row>
-    <row r="6" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -703,12 +692,11 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-    </row>
-    <row r="7" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -726,12 +714,11 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-    </row>
-    <row r="8" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -749,12 +736,11 @@
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-    </row>
-    <row r="9" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -772,12 +758,11 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-    </row>
-    <row r="10" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -795,12 +780,11 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-    </row>
-    <row r="11" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -818,12 +802,11 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -841,12 +824,11 @@
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-    </row>
-    <row r="13" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -864,12 +846,11 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-    </row>
-    <row r="14" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -887,12 +868,11 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-    </row>
-    <row r="15" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -910,12 +890,11 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-    </row>
-    <row r="16" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -933,12 +912,11 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:20" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -956,7 +934,6 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
